--- a/cbrunner/Parameters/Parameters_IBMStatsMod.xlsx
+++ b/cbrunner/Parameters/Parameters_IBMStatsMod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F9FEDB-378B-46A8-A5C9-6AF75D7EC4CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB390407-2B98-4AA5-9A54-961F10E21CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11532" yWindow="324" windowWidth="11508" windowHeight="12636" xr2:uid="{9AFF771F-04B1-40A8-9BAA-71BEFF0291C3}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{9AFF771F-04B1-40A8-9BAA-71BEFF0291C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>p_VerySevere_obs</t>
+  </si>
+  <si>
+    <t>Exclude simulations during historical period</t>
+  </si>
+  <si>
+    <t>Off</t>
   </si>
 </sst>
 </file>
@@ -459,12 +465,12 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -575,6 +581,14 @@
       </c>
       <c r="D8" s="2"/>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
